--- a/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/Burnham Center for Chemical Genomics-DNA repair only.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/Burnham Center for Chemical Genomics-DNA repair only.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="610">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -1924,7 +1924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1937,11 +1937,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2248,8 +2251,8 @@
   <dimension ref="A1:BB441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2565" ySplit="4545" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="2565" ySplit="4545" topLeftCell="A2" activePane="topRight"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16:A19"/>
       <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
     </sheetView>
@@ -2310,46 +2313,46 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="9"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2370,9 +2373,7 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -3136,7 +3137,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>609</v>
       </c>
       <c r="B15" t="str">
@@ -3217,7 +3218,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>609</v>
       </c>
       <c r="AE16" t="s">
@@ -3225,7 +3226,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>609</v>
       </c>
       <c r="AE17" t="s">
@@ -3233,7 +3234,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>609</v>
       </c>
       <c r="AE18" t="s">
@@ -3241,7 +3242,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>609</v>
       </c>
       <c r="AE19" s="5" t="s">

--- a/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/Burnham Center for Chemical Genomics-DNA repair only.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/Burnham Center for Chemical Genomics-DNA repair only.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="611">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -1868,6 +1868,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 488777</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1940,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2251,10 +2254,7 @@
   <dimension ref="A1:BB441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2565" ySplit="4545" topLeftCell="A2" activePane="topRight"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:A19"/>
-      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2373,7 +2373,9 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>610</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -3137,7 +3139,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>609</v>
       </c>
       <c r="B15" t="str">
@@ -3218,7 +3220,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>609</v>
       </c>
       <c r="AE16" t="s">
@@ -3226,7 +3228,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>609</v>
       </c>
       <c r="AE17" t="s">
@@ -3234,7 +3236,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>609</v>
       </c>
       <c r="AE18" t="s">
@@ -3242,7 +3244,7 @@
       </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>609</v>
       </c>
       <c r="AE19" s="5" t="s">
